--- a/InputExcelSheet/Input_parameterization123.xlsx
+++ b/InputExcelSheet/Input_parameterization123.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t xml:space="preserve">Feature Name</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">DELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provider</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFF00"/>
       <name val="Bahnschrift SemiLight"/>
       <family val="2"/>
       <charset val="1"/>
@@ -141,8 +144,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
@@ -298,7 +301,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -321,10 +324,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -485,6 +488,54 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/InputExcelSheet/Input_parameterization123.xlsx
+++ b/InputExcelSheet/Input_parameterization123.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="API_Test_Scenarios" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t xml:space="preserve">Feature Name</t>
   </si>
@@ -73,16 +74,55 @@
     <t xml:space="preserve">Patient</t>
   </si>
   <si>
+    <t xml:space="preserve">To verify patient is adding successfully.</t>
+  </si>
+  <si>
     <t xml:space="preserve">GET</t>
   </si>
   <si>
+    <t xml:space="preserve">To validate newly added patient data is saved correctly and able to fetch it correctly.</t>
+  </si>
+  <si>
     <t xml:space="preserve">PUT</t>
   </si>
   <si>
+    <t xml:space="preserve">Verify able to modify patient record.</t>
+  </si>
+  <si>
     <t xml:space="preserve">DELETE</t>
   </si>
   <si>
+    <t xml:space="preserve">Able to delete the patient record successfully.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Provider is creating successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To fetch and verify newly created provider details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify user is able to update provider details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether user is able to delete provider.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Two dimensional array in collection pre-requisite script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addition of all test data – skip if Flag is Test Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Match Request name for execution – skip if doesnot match with input file</t>
   </si>
 </sst>
 </file>
@@ -135,7 +175,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,7 +185,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <bgColor rgb="FF011C39"/>
       </patternFill>
     </fill>
     <fill>
@@ -158,6 +198,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA7074B"/>
         <bgColor rgb="FF8D1D75"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF011C39"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF069A2E"/>
+        <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
   </fills>
@@ -210,7 +262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,6 +296,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -267,7 +343,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF069A2E"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FFA7074B"/>
@@ -306,7 +382,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF011C39"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -324,16 +400,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="65.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="69.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="35.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.15"/>
@@ -447,8 +523,12 @@
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>201</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
@@ -457,10 +537,14 @@
         <v>16</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>200</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
@@ -469,10 +553,14 @@
         <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>201</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
@@ -481,60 +569,120 @@
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>200</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>201</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>201</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -545,4 +693,61 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="E3:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="59.95"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/InputExcelSheet/Input_parameterization123.xlsx
+++ b/InputExcelSheet/Input_parameterization123.xlsx
@@ -21,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+  <si>
+    <t xml:space="preserve">Flag</t>
+  </si>
   <si>
     <t xml:space="preserve">Feature Name</t>
   </si>
@@ -41,6 +44,21 @@
     <t xml:space="preserve">password  </t>
   </si>
   <si>
+    <t xml:space="preserve">email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstName </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastName </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestData</t>
+  </si>
+  <si>
     <t xml:space="preserve">Login</t>
   </si>
   <si>
@@ -77,6 +95,15 @@
     <t xml:space="preserve">To verify patient is adding successfully.</t>
   </si>
   <si>
+    <t xml:space="preserve">abhi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhijit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
     <t xml:space="preserve">GET</t>
   </si>
   <si>
@@ -111,6 +138,15 @@
   </si>
   <si>
     <t xml:space="preserve">Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login-POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify when user enters valid credentials.</t>
   </si>
   <si>
     <t xml:space="preserve">Flow</t>
@@ -262,7 +298,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,6 +335,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,8 +363,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -400,20 +448,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="69.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="35.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="12.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="69.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -426,265 +475,430 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
+      <c r="A2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
+      <c r="A3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>401</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <v>401</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
+      <c r="A5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>401</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
+      <c r="A6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="n">
         <v>201</v>
       </c>
-      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>2345556555</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>16</v>
+      <c r="A7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
+      <c r="A8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="8" t="n">
         <v>201</v>
       </c>
-      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
+      <c r="A9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="10" t="n">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="12" t="n">
         <v>201</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="10" t="n">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="10" t="n">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="12" t="n">
         <v>201</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="10" t="n">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" display="abhi@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -708,37 +922,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="59.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="59.95"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="0" t="s">
-        <v>30</v>
+      <c r="F3" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>31</v>
+      <c r="F5" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>32</v>
+      <c r="F7" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>33</v>
+      <c r="F9" s="17" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/InputExcelSheet/Input_parameterization123.xlsx
+++ b/InputExcelSheet/Input_parameterization123.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
   <si>
     <t xml:space="preserve">Flag</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t xml:space="preserve">To verify when user enters valid credentials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient-POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No-Run</t>
   </si>
   <si>
     <t xml:space="preserve">Flow</t>
@@ -448,10 +454,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -807,7 +813,9 @@
       <c r="B14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
       <c r="F14" s="14"/>
@@ -824,7 +832,9 @@
       <c r="B15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
       <c r="F15" s="14"/>
@@ -841,7 +851,9 @@
       <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
       <c r="F16" s="14"/>
@@ -858,7 +870,9 @@
       <c r="B17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
       <c r="F17" s="14"/>
@@ -895,9 +909,110 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>201</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="10" t="n">
+        <v>2345556555</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>201</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" display="abhi@gmail.com"/>
+    <hyperlink ref="H19" r:id="rId2" display="abhi@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -928,7 +1043,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -952,7 +1067,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/InputExcelSheet/Input_parameterization123.xlsx
+++ b/InputExcelSheet/Input_parameterization123.xlsx
@@ -140,19 +140,19 @@
     <t xml:space="preserve">Task</t>
   </si>
   <si>
+    <t xml:space="preserve">No-Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login-POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify when user enters valid credentials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient-POST</t>
+  </si>
+  <si>
     <t xml:space="preserve">Run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login-POST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify when user enters valid credentials.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient-POST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-Run</t>
   </si>
   <si>
     <t xml:space="preserve">Flow</t>
@@ -457,7 +457,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -942,7 +942,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>22</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>22</v>

--- a/InputExcelSheet/Input_parameterization123.xlsx
+++ b/InputExcelSheet/Input_parameterization123.xlsx
@@ -140,19 +140,19 @@
     <t xml:space="preserve">Task</t>
   </si>
   <si>
+    <t xml:space="preserve">Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login-POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify when user enters valid credentials.</t>
+  </si>
+  <si>
     <t xml:space="preserve">No-Run</t>
   </si>
   <si>
-    <t xml:space="preserve">Login-POST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify when user enters valid credentials.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Patient-POST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run</t>
   </si>
   <si>
     <t xml:space="preserve">Flow</t>
@@ -174,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -212,6 +212,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Bahnschrift SemiLight"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Bahnschrift SemiLight"/>
       <family val="2"/>
       <charset val="1"/>
@@ -304,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,6 +373,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -454,10 +465,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -911,13 +922,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>23</v>
@@ -942,7 +953,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>22</v>
@@ -965,7 +976,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>22</v>
@@ -988,7 +999,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>22</v>
@@ -1008,6 +1019,9 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1037,36 +1051,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="59.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="59.95"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>47</v>
       </c>
     </row>
